--- a/Consolidados/tabla_031_migra_Consolidado.xlsx
+++ b/Consolidados/tabla_031_migra_Consolidado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\tabla_031_migra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\Consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51746C3-31A2-4F29-B93E-EF70246AE004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716EE2A-20FD-471F-9206-66C64E9C69DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2081,7 +2081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
